--- a/HT36C/Comp-A4_HT36C_A.xlsx
+++ b/HT36C/Comp-A4_HT36C_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PKBACK# 001/GitHub/24321-A4/HT36C/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smtgn\Desktop\S19\Thermal Fluids\GitHub\24321-A4\HT36C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF809C6-99BC-B542-8B1B-CA1A0EE93D1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74066AEF-D75E-4CED-B1D0-917A14667E8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="4074" windowWidth="19164" windowHeight="6126" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -471,39 +471,39 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6640625" customWidth="1"/>
-    <col min="28" max="28" width="3.6640625" customWidth="1"/>
-    <col min="29" max="29" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.68359375" customWidth="1"/>
+    <col min="6" max="6" width="7.68359375" customWidth="1"/>
+    <col min="7" max="7" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.68359375" customWidth="1"/>
+    <col min="9" max="9" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.68359375" customWidth="1"/>
+    <col min="28" max="28" width="3.5234375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -681,7 +681,7 @@
         <v>34.841099999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>2</v>
       </c>
@@ -770,7 +770,7 @@
         <v>35.587899999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>3</v>
       </c>
@@ -859,7 +859,7 @@
         <v>33.834499999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>4</v>
       </c>
@@ -948,7 +948,7 @@
         <v>30.425000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1048,7 +1048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1060,7 +1060,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HT36C/Comp-A4_HT36C_A.xlsx
+++ b/HT36C/Comp-A4_HT36C_A.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smtgn\Desktop\S19\Thermal Fluids\GitHub\24321-A4\HT36C\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74066AEF-D75E-4CED-B1D0-917A14667E8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="4074" windowWidth="19164" windowHeight="6126" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="25600" windowHeight="12800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="31">
   <si>
     <t>run</t>
   </si>
@@ -109,12 +103,18 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>flowDir</t>
+  </si>
+  <si>
+    <t>Countercurrent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -129,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -144,27 +144,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -464,135 +512,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.3671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.68359375" customWidth="1"/>
-    <col min="6" max="6" width="7.68359375" customWidth="1"/>
-    <col min="7" max="7" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.68359375" customWidth="1"/>
-    <col min="9" max="9" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5234375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.68359375" customWidth="1"/>
-    <col min="28" max="28" width="3.5234375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.68359375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="6.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="4.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.7109375" customWidth="true"/>
+    <col min="6" max="6" width="7.7109375" customWidth="true"/>
+    <col min="7" max="7" width="7.7109375" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.7109375" customWidth="true"/>
+    <col min="9" max="9" width="7.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="2.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="7.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="3.7109375" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="7.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="4.7109375" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.7109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="4.7109375" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="7.7109375" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="4.7109375" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.7109375" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="4.7109375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="7.7109375" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4.7109375" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="7.7109375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="4.7109375" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="7.7109375" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="3.7109375" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="7.7109375" customWidth="true"/>
+    <col min="28" max="28" width="3.7109375" bestFit="true" customWidth="true"/>
+    <col min="29" max="29" width="7.7109375" customWidth="true"/>
+    <col min="30" max="30" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="28" t="s">
         <v>23</v>
       </c>
+      <c r="AD1" s="28" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -615,10 +668,10 @@
         <v>40.0364</v>
       </c>
       <c r="H2">
+        <v>14.611800000000001</v>
+      </c>
+      <c r="I2">
         <v>34.841099999999997</v>
-      </c>
-      <c r="I2">
-        <v>14.611800000000001</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -680,8 +733,11 @@
       <c r="AC2">
         <v>34.841099999999997</v>
       </c>
+      <c r="AD2" s="28" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -704,10 +760,10 @@
         <v>40.1663</v>
       </c>
       <c r="H3">
+        <v>14.3521</v>
+      </c>
+      <c r="I3">
         <v>35.587899999999998</v>
-      </c>
-      <c r="I3">
-        <v>14.3521</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -769,8 +825,11 @@
       <c r="AC3">
         <v>35.587899999999998</v>
       </c>
+      <c r="AD3" s="28" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -793,10 +852,10 @@
         <v>44.127699999999997</v>
       </c>
       <c r="H4">
+        <v>14.384499999999999</v>
+      </c>
+      <c r="I4">
         <v>33.834499999999998</v>
-      </c>
-      <c r="I4">
-        <v>14.384499999999999</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -858,8 +917,11 @@
       <c r="AC4">
         <v>33.834499999999998</v>
       </c>
+      <c r="AD4" s="28" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -882,10 +944,10 @@
         <v>49.290500000000002</v>
       </c>
       <c r="H5">
+        <v>13.8325</v>
+      </c>
+      <c r="I5">
         <v>30.425000000000001</v>
-      </c>
-      <c r="I5">
-        <v>13.8325</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -947,8 +1009,11 @@
       <c r="AC5">
         <v>30.425000000000001</v>
       </c>
+      <c r="AD5" s="28" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -971,10 +1036,10 @@
         <v>53.933799999999998</v>
       </c>
       <c r="H6">
+        <v>13.247999999999999</v>
+      </c>
+      <c r="I6">
         <v>23.151599999999998</v>
-      </c>
-      <c r="I6">
-        <v>13.247999999999999</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1035,6 +1100,9 @@
       </c>
       <c r="AC6">
         <v>23.151599999999998</v>
+      </c>
+      <c r="AD6" s="28" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1043,24 +1111,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HT36C/Comp-A4_HT36C_A.xlsx
+++ b/HT36C/Comp-A4_HT36C_A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="31">
   <si>
     <t>run</t>
   </si>
@@ -129,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -172,11 +172,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -207,6 +215,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,94 +570,94 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AC1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AD1" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -733,7 +749,7 @@
       <c r="AC2">
         <v>34.841099999999997</v>
       </c>
-      <c r="AD2" s="28" t="s">
+      <c r="AD2" s="36" t="s">
         <v>30</v>
       </c>
     </row>
@@ -825,7 +841,7 @@
       <c r="AC3">
         <v>35.587899999999998</v>
       </c>
-      <c r="AD3" s="28" t="s">
+      <c r="AD3" s="36" t="s">
         <v>30</v>
       </c>
     </row>
@@ -917,7 +933,7 @@
       <c r="AC4">
         <v>33.834499999999998</v>
       </c>
-      <c r="AD4" s="28" t="s">
+      <c r="AD4" s="36" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1009,7 +1025,7 @@
       <c r="AC5">
         <v>30.425000000000001</v>
       </c>
-      <c r="AD5" s="28" t="s">
+      <c r="AD5" s="36" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1101,7 +1117,7 @@
       <c r="AC6">
         <v>23.151599999999998</v>
       </c>
-      <c r="AD6" s="28" t="s">
+      <c r="AD6" s="36" t="s">
         <v>30</v>
       </c>
     </row>
